--- a/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zucchettihealthcare.sharepoint.com/sites/Integrazioni/Shared Documents/General/FSE/Accreditamento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uno\Git\it-fse-accreditamento-fork\GATEWAY\A1#111#ZUCCHETTIHEALTHCAREXX\Zucchetti_Healthcare\CSS2\2024_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{74014161-2822-4E87-A21B-E27B30B9F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF48411-18F4-4129-B316-B840555B6BD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168415C0-49EE-42D8-A7BE-19828DEAAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4105,19 +4105,19 @@
     <t>09/05/2024  09:48:54.933</t>
   </si>
   <si>
-    <t>0b4468faefdf01f8</t>
-  </si>
-  <si>
-    <t>2024-05-14T12:01:18Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.e4dc3bf276^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3fe7c3437b397c89</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.a915c9925a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-05-16T08:54:03Z</t>
+  </si>
+  <si>
+    <t>ae010e438e7bd9e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.8bd8083517^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f1da5abb9dd71584</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.6beba200fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4464,6 +4464,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4478,9 +4481,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4565,10 +4565,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7075,10 +7071,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7120,14 +7116,14 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="39"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -7145,14 +7141,14 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -7170,12 +7166,12 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -7194,12 +7190,12 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -7217,8 +7213,8 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7522,13 +7518,13 @@
         <v>63</v>
       </c>
       <c r="F15" s="23">
-        <v>45426</v>
-      </c>
-      <c r="G15" s="41" t="s">
+        <v>45428</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>860</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>862</v>
@@ -19934,10 +19930,10 @@
         <v>784</v>
       </c>
       <c r="F376" s="23">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G376" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H376" s="24" t="s">
         <v>863</v>
@@ -27621,17 +27617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046B2B26E4D726F47A11583A23F30D841" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="efecf3075541cf0ab36a77e730b75aaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e246371e-0fe6-4e60-9da6-0574cfff2d05" xmlns:ns3="d199676f-dea3-4248-b14d-078d8bf8a29a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbb738678e67a851313bdd742041dd3b" ns2:_="" ns3:_="">
     <xsd:import namespace="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
@@ -27860,6 +27845,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -27870,6 +27866,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101055E-0134-4C55-B2BF-3C08EFA7B6A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
+    <ds:schemaRef ds:uri="d199676f-dea3-4248-b14d-078d8bf8a29a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BC5383-9A39-44FE-820E-E8F909F971FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -27880,10 +27895,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101055E-0134-4C55-B2BF-3C08EFA7B6A6}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5435EEEA-4D16-432F-AD75-4FF12121BE2B}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uno\Git\it-fse-accreditamento-fork\GATEWAY\A1#111#ZUCCHETTIHEALTHCAREXX\Zucchetti_Healthcare\CSS2\2024_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168415C0-49EE-42D8-A7BE-19828DEAAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289932A-E853-4DB8-820A-AC98F1861B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4105,19 +4105,19 @@
     <t>09/05/2024  09:48:54.933</t>
   </si>
   <si>
-    <t>2024-05-16T08:54:03Z</t>
-  </si>
-  <si>
-    <t>ae010e438e7bd9e6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.8bd8083517^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f1da5abb9dd71584</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.6beba200fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-05-17T09:02:23Z</t>
+  </si>
+  <si>
+    <t>149a685566425d7b</t>
+  </si>
+  <si>
+    <t>43736aef45a44463</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.0039e816a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.5a3d01cfd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7071,7 +7071,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
@@ -7518,7 +7518,7 @@
         <v>63</v>
       </c>
       <c r="F15" s="23">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>860</v>
@@ -7527,7 +7527,7 @@
         <v>861</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>64</v>
@@ -19930,13 +19930,13 @@
         <v>784</v>
       </c>
       <c r="F376" s="23">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="G376" s="34" t="s">
         <v>860</v>
       </c>
       <c r="H376" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I376" s="24" t="s">
         <v>864</v>
@@ -27617,6 +27617,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046B2B26E4D726F47A11583A23F30D841" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="efecf3075541cf0ab36a77e730b75aaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e246371e-0fe6-4e60-9da6-0574cfff2d05" xmlns:ns3="d199676f-dea3-4248-b14d-078d8bf8a29a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbb738678e67a851313bdd742041dd3b" ns2:_="" ns3:_="">
     <xsd:import namespace="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
@@ -27845,17 +27856,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -27866,6 +27866,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BC5383-9A39-44FE-820E-E8F909F971FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
+    <ds:schemaRef ds:uri="d199676f-dea3-4248-b14d-078d8bf8a29a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101055E-0134-4C55-B2BF-3C08EFA7B6A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27884,17 +27895,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BC5383-9A39-44FE-820E-E8F909F971FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
-    <ds:schemaRef ds:uri="d199676f-dea3-4248-b14d-078d8bf8a29a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5435EEEA-4D16-432F-AD75-4FF12121BE2B}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ZUCCHETTIHEALTHCAREXX/Zucchetti_Healthcare/CSS2/2024_10/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uno\Git\it-fse-accreditamento-fork\GATEWAY\A1#111#ZUCCHETTIHEALTHCAREXX\Zucchetti_Healthcare\CSS2\2024_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289932A-E853-4DB8-820A-AC98F1861B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B54C78C-6C35-4034-8C39-CB4349270BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-16335" windowWidth="29070" windowHeight="15750" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -737,9 +737,6 @@
     <t>Serzio non dispobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Se la chiamata fallisce, viene inserito in una coda per essere rieseguita. Se falliscono tutti i tentativi di invio previsti viene gestito il messaggio di errore come esito scaricabile. Se non passa la validazione, il processo si blocca e non procede con la pubblicazione. </t>
-  </si>
-  <si>
     <t>VALIDAZIONE_PSS_TIMEOUT</t>
   </si>
   <si>
@@ -4093,9 +4090,6 @@
     <t>Token non valido: Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
-    <t>Il messaggio di errore viene recapitato all'applicazione che ha invocato il servizio (sincrono) e salvato nel log applicativo</t>
-  </si>
-  <si>
     <t>d913cde512ed407e</t>
   </si>
   <si>
@@ -4118,6 +4112,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.3.1.4.4.6b86b273ff34fce19d6b804eff5a3f5747ada4eaa22f1d49c01e52ddb7875b4b.5a3d01cfd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il messaggio di errore viene recapitato all'applicazione che ha invocato il servizio (sincrono) e salvato nel log applicativo. Il documento non viene inviato. Il reinvio avviene mediante intervento manuale da parte dell'operatore</t>
+  </si>
+  <si>
+    <t>Se la chiamata fallisce, viene inserito in una coda per essere rieseguita. Se falliscono tutti i tentativi di invio previsti viene gestito il messaggio di errore come esito scaricabile. Se non passa la validazione, il processo si blocca e non procede con la pubblicazione. Il reinvio avviene mediante intervento manuale da parte dell'operatore</t>
   </si>
 </sst>
 </file>
@@ -4363,7 +4363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4481,6 +4481,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7070,11 +7073,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
+      <selection pane="bottomRight" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7331,7 +7334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -7521,13 +7524,13 @@
         <v>45429</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H15" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>863</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>64</v>
@@ -7659,7 +7662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>16</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>17</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>18</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>23</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>24</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>25</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>26</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>27</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>28</v>
       </c>
@@ -8257,13 +8260,13 @@
         <v>45421</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H36" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>852</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>853</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>64</v>
@@ -8276,13 +8279,13 @@
         <v>64</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O36" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P36" s="35" t="s">
-        <v>856</v>
+      <c r="P36" s="42" t="s">
+        <v>863</v>
       </c>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
@@ -8291,7 +8294,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>35</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>36</v>
       </c>
@@ -8549,13 +8552,13 @@
         <v>45421</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>64</v>
@@ -8568,13 +8571,13 @@
         <v>64</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="35" t="s">
-        <v>856</v>
+      <c r="P44" s="42" t="s">
+        <v>863</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -8583,7 +8586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>41</v>
       </c>
@@ -8719,7 +8722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>42</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>43</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>64</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>135</v>
+        <v>864</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
@@ -8871,7 +8874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>46</v>
       </c>
@@ -8882,7 +8885,7 @@
         <v>114</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>132</v>
@@ -8907,7 +8910,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>73</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>132</v>
@@ -8943,7 +8946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>117</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>132</v>
@@ -8979,7 +8982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>49</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>82</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>132</v>
@@ -9015,7 +9018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>91</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>132</v>
@@ -9051,7 +9054,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>51</v>
       </c>
@@ -9062,7 +9065,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>132</v>
@@ -9087,7 +9090,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -9098,10 +9101,10 @@
         <v>49</v>
       </c>
       <c r="D59" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
@@ -9121,7 +9124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>53</v>
       </c>
@@ -9132,10 +9135,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
@@ -9155,7 +9158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -9166,10 +9169,10 @@
         <v>49</v>
       </c>
       <c r="D61" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
@@ -9189,7 +9192,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -9200,10 +9203,10 @@
         <v>49</v>
       </c>
       <c r="D62" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
@@ -9223,7 +9226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -9234,10 +9237,10 @@
         <v>49</v>
       </c>
       <c r="D63" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
@@ -9257,7 +9260,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -9268,10 +9271,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
@@ -9291,7 +9294,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -9302,10 +9305,10 @@
         <v>49</v>
       </c>
       <c r="D65" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
@@ -9325,7 +9328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>59</v>
       </c>
@@ -9336,10 +9339,10 @@
         <v>49</v>
       </c>
       <c r="D66" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="24"/>
@@ -9359,7 +9362,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>60</v>
       </c>
@@ -9370,10 +9373,10 @@
         <v>49</v>
       </c>
       <c r="D67" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
@@ -9393,7 +9396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -9404,10 +9407,10 @@
         <v>49</v>
       </c>
       <c r="D68" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
@@ -9427,7 +9430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" ht="174.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -9438,10 +9441,10 @@
         <v>49</v>
       </c>
       <c r="D69" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="24"/>
@@ -9472,10 +9475,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -9485,7 +9488,7 @@
         <v>67</v>
       </c>
       <c r="K70" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
@@ -9510,10 +9513,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
@@ -9523,7 +9526,7 @@
         <v>67</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -9548,10 +9551,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24"/>
@@ -9561,7 +9564,7 @@
         <v>67</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -9586,10 +9589,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="24"/>
@@ -9599,7 +9602,7 @@
         <v>67</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
@@ -9624,10 +9627,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="24"/>
@@ -9637,7 +9640,7 @@
         <v>67</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
@@ -9662,10 +9665,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="24"/>
@@ -9675,7 +9678,7 @@
         <v>67</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
@@ -9700,10 +9703,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
@@ -9713,7 +9716,7 @@
         <v>67</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -9738,10 +9741,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
@@ -9751,7 +9754,7 @@
         <v>67</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -9776,10 +9779,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
@@ -9814,10 +9817,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
@@ -9852,10 +9855,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="24"/>
@@ -9865,7 +9868,7 @@
         <v>67</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -9890,10 +9893,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -9928,10 +9931,10 @@
         <v>73</v>
       </c>
       <c r="D82" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -9962,10 +9965,10 @@
         <v>73</v>
       </c>
       <c r="D83" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -9996,10 +9999,10 @@
         <v>73</v>
       </c>
       <c r="D84" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -10030,10 +10033,10 @@
         <v>73</v>
       </c>
       <c r="D85" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -10064,10 +10067,10 @@
         <v>73</v>
       </c>
       <c r="D86" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -10098,10 +10101,10 @@
         <v>73</v>
       </c>
       <c r="D87" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -10132,10 +10135,10 @@
         <v>73</v>
       </c>
       <c r="D88" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -10166,10 +10169,10 @@
         <v>73</v>
       </c>
       <c r="D89" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -10200,10 +10203,10 @@
         <v>73</v>
       </c>
       <c r="D90" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -10234,10 +10237,10 @@
         <v>73</v>
       </c>
       <c r="D91" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>216</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -10268,10 +10271,10 @@
         <v>73</v>
       </c>
       <c r="D92" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>218</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -10302,10 +10305,10 @@
         <v>73</v>
       </c>
       <c r="D93" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -10336,10 +10339,10 @@
         <v>73</v>
       </c>
       <c r="D94" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -10370,10 +10373,10 @@
         <v>73</v>
       </c>
       <c r="D95" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -10404,10 +10407,10 @@
         <v>73</v>
       </c>
       <c r="D96" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -10438,10 +10441,10 @@
         <v>73</v>
       </c>
       <c r="D97" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -10472,10 +10475,10 @@
         <v>73</v>
       </c>
       <c r="D98" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -10506,10 +10509,10 @@
         <v>73</v>
       </c>
       <c r="D99" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -10540,10 +10543,10 @@
         <v>73</v>
       </c>
       <c r="D100" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -10574,10 +10577,10 @@
         <v>82</v>
       </c>
       <c r="D101" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -10608,10 +10611,10 @@
         <v>82</v>
       </c>
       <c r="D102" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -10642,10 +10645,10 @@
         <v>82</v>
       </c>
       <c r="D103" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -10676,10 +10679,10 @@
         <v>82</v>
       </c>
       <c r="D104" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -10710,10 +10713,10 @@
         <v>82</v>
       </c>
       <c r="D105" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -10744,10 +10747,10 @@
         <v>82</v>
       </c>
       <c r="D106" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -10778,10 +10781,10 @@
         <v>82</v>
       </c>
       <c r="D107" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -10812,10 +10815,10 @@
         <v>82</v>
       </c>
       <c r="D108" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -10846,10 +10849,10 @@
         <v>82</v>
       </c>
       <c r="D109" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -10880,10 +10883,10 @@
         <v>82</v>
       </c>
       <c r="D110" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -10914,10 +10917,10 @@
         <v>82</v>
       </c>
       <c r="D111" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -10948,10 +10951,10 @@
         <v>82</v>
       </c>
       <c r="D112" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>258</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -10982,10 +10985,10 @@
         <v>82</v>
       </c>
       <c r="D113" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -11016,10 +11019,10 @@
         <v>91</v>
       </c>
       <c r="D114" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -11050,10 +11053,10 @@
         <v>91</v>
       </c>
       <c r="D115" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>264</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -11084,10 +11087,10 @@
         <v>91</v>
       </c>
       <c r="D116" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -11118,10 +11121,10 @@
         <v>91</v>
       </c>
       <c r="D117" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -11152,10 +11155,10 @@
         <v>91</v>
       </c>
       <c r="D118" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -11186,10 +11189,10 @@
         <v>91</v>
       </c>
       <c r="D119" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -11220,10 +11223,10 @@
         <v>91</v>
       </c>
       <c r="D120" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E120" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>274</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -11254,10 +11257,10 @@
         <v>91</v>
       </c>
       <c r="D121" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -11288,10 +11291,10 @@
         <v>91</v>
       </c>
       <c r="D122" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E122" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -11322,10 +11325,10 @@
         <v>91</v>
       </c>
       <c r="D123" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -11356,10 +11359,10 @@
         <v>91</v>
       </c>
       <c r="D124" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -11390,10 +11393,10 @@
         <v>91</v>
       </c>
       <c r="D125" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E125" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -11424,10 +11427,10 @@
         <v>91</v>
       </c>
       <c r="D126" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -11458,10 +11461,10 @@
         <v>91</v>
       </c>
       <c r="D127" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E127" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -11492,10 +11495,10 @@
         <v>91</v>
       </c>
       <c r="D128" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E128" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -11526,10 +11529,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -11560,10 +11563,10 @@
         <v>100</v>
       </c>
       <c r="D130" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E130" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -11594,10 +11597,10 @@
         <v>100</v>
       </c>
       <c r="D131" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -11628,10 +11631,10 @@
         <v>100</v>
       </c>
       <c r="D132" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E132" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -11662,10 +11665,10 @@
         <v>100</v>
       </c>
       <c r="D133" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E133" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -11696,10 +11699,10 @@
         <v>100</v>
       </c>
       <c r="D134" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -11730,10 +11733,10 @@
         <v>100</v>
       </c>
       <c r="D135" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -11764,10 +11767,10 @@
         <v>100</v>
       </c>
       <c r="D136" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E136" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -11798,10 +11801,10 @@
         <v>100</v>
       </c>
       <c r="D137" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -11832,10 +11835,10 @@
         <v>100</v>
       </c>
       <c r="D138" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E138" s="22" t="s">
         <v>309</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -11866,10 +11869,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E139" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -11900,10 +11903,10 @@
         <v>100</v>
       </c>
       <c r="D140" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E140" s="22" t="s">
         <v>313</v>
-      </c>
-      <c r="E140" s="22" t="s">
-        <v>314</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -11934,10 +11937,10 @@
         <v>100</v>
       </c>
       <c r="D141" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -11968,10 +11971,10 @@
         <v>100</v>
       </c>
       <c r="D142" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -12002,10 +12005,10 @@
         <v>100</v>
       </c>
       <c r="D143" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E143" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -12036,10 +12039,10 @@
         <v>100</v>
       </c>
       <c r="D144" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E144" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -12070,10 +12073,10 @@
         <v>100</v>
       </c>
       <c r="D145" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -12104,10 +12107,10 @@
         <v>100</v>
       </c>
       <c r="D146" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E146" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -12138,10 +12141,10 @@
         <v>100</v>
       </c>
       <c r="D147" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E147" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="E147" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -12172,10 +12175,10 @@
         <v>100</v>
       </c>
       <c r="D148" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E148" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -12206,10 +12209,10 @@
         <v>100</v>
       </c>
       <c r="D149" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E149" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -12240,10 +12243,10 @@
         <v>100</v>
       </c>
       <c r="D150" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E150" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>334</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -12274,10 +12277,10 @@
         <v>100</v>
       </c>
       <c r="D151" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E151" s="22" t="s">
         <v>335</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>336</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -12308,10 +12311,10 @@
         <v>100</v>
       </c>
       <c r="D152" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>338</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -12342,10 +12345,10 @@
         <v>100</v>
       </c>
       <c r="D153" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E153" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -12376,10 +12379,10 @@
         <v>117</v>
       </c>
       <c r="D154" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E154" s="22" t="s">
         <v>341</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>342</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
@@ -12410,10 +12413,10 @@
         <v>117</v>
       </c>
       <c r="D155" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E155" s="22" t="s">
         <v>343</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>344</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
@@ -12444,10 +12447,10 @@
         <v>117</v>
       </c>
       <c r="D156" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E156" s="22" t="s">
         <v>345</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>346</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
@@ -12478,10 +12481,10 @@
         <v>117</v>
       </c>
       <c r="D157" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E157" s="22" t="s">
         <v>347</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>348</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
@@ -12512,10 +12515,10 @@
         <v>117</v>
       </c>
       <c r="D158" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E158" s="22" t="s">
         <v>349</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>350</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
@@ -12546,10 +12549,10 @@
         <v>117</v>
       </c>
       <c r="D159" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E159" s="22" t="s">
         <v>351</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>352</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
@@ -12580,10 +12583,10 @@
         <v>117</v>
       </c>
       <c r="D160" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E160" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>354</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
@@ -12614,10 +12617,10 @@
         <v>117</v>
       </c>
       <c r="D161" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E161" s="22" t="s">
         <v>355</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>356</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="24"/>
@@ -12648,10 +12651,10 @@
         <v>117</v>
       </c>
       <c r="D162" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E162" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
@@ -12682,10 +12685,10 @@
         <v>117</v>
       </c>
       <c r="D163" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E163" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
@@ -12716,10 +12719,10 @@
         <v>117</v>
       </c>
       <c r="D164" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E164" s="22" t="s">
         <v>361</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>362</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -12750,10 +12753,10 @@
         <v>117</v>
       </c>
       <c r="D165" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E165" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
@@ -12784,10 +12787,10 @@
         <v>117</v>
       </c>
       <c r="D166" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E166" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>366</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
@@ -12818,10 +12821,10 @@
         <v>117</v>
       </c>
       <c r="D167" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E167" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>368</v>
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="24"/>
@@ -12852,10 +12855,10 @@
         <v>117</v>
       </c>
       <c r="D168" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E168" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="24"/>
@@ -12886,10 +12889,10 @@
         <v>117</v>
       </c>
       <c r="D169" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>372</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
@@ -12920,10 +12923,10 @@
         <v>117</v>
       </c>
       <c r="D170" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E170" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -12954,10 +12957,10 @@
         <v>117</v>
       </c>
       <c r="D171" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="22" t="s">
         <v>375</v>
-      </c>
-      <c r="E171" s="22" t="s">
-        <v>376</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -12988,10 +12991,10 @@
         <v>117</v>
       </c>
       <c r="D172" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E172" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>378</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -13022,10 +13025,10 @@
         <v>117</v>
       </c>
       <c r="D173" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="E173" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -13056,10 +13059,10 @@
         <v>117</v>
       </c>
       <c r="D174" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E174" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="E174" s="22" t="s">
-        <v>382</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -13090,10 +13093,10 @@
         <v>117</v>
       </c>
       <c r="D175" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E175" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="E175" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
@@ -13124,10 +13127,10 @@
         <v>117</v>
       </c>
       <c r="D176" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E176" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="E176" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
@@ -13158,10 +13161,10 @@
         <v>114</v>
       </c>
       <c r="D177" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -13192,10 +13195,10 @@
         <v>114</v>
       </c>
       <c r="D178" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E178" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -13226,10 +13229,10 @@
         <v>114</v>
       </c>
       <c r="D179" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E179" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>392</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -13260,10 +13263,10 @@
         <v>114</v>
       </c>
       <c r="D180" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="E180" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -13294,10 +13297,10 @@
         <v>114</v>
       </c>
       <c r="D181" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E181" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="E181" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -13328,10 +13331,10 @@
         <v>114</v>
       </c>
       <c r="D182" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E182" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="E182" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -13362,10 +13365,10 @@
         <v>114</v>
       </c>
       <c r="D183" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E183" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="E183" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -13396,10 +13399,10 @@
         <v>114</v>
       </c>
       <c r="D184" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="E184" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="E184" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -13430,10 +13433,10 @@
         <v>114</v>
       </c>
       <c r="D185" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E185" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -13464,10 +13467,10 @@
         <v>114</v>
       </c>
       <c r="D186" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E186" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -13498,10 +13501,10 @@
         <v>114</v>
       </c>
       <c r="D187" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E187" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="E187" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -13532,10 +13535,10 @@
         <v>114</v>
       </c>
       <c r="D188" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E188" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -13566,10 +13569,10 @@
         <v>114</v>
       </c>
       <c r="D189" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="E189" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -13600,10 +13603,10 @@
         <v>114</v>
       </c>
       <c r="D190" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E190" s="22" t="s">
         <v>413</v>
-      </c>
-      <c r="E190" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -13634,10 +13637,10 @@
         <v>114</v>
       </c>
       <c r="D191" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E191" s="22" t="s">
         <v>415</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -13668,10 +13671,10 @@
         <v>114</v>
       </c>
       <c r="D192" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E192" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -13702,10 +13705,10 @@
         <v>114</v>
       </c>
       <c r="D193" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E193" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="E193" s="22" t="s">
-        <v>420</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -13736,10 +13739,10 @@
         <v>114</v>
       </c>
       <c r="D194" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E194" s="22" t="s">
         <v>421</v>
-      </c>
-      <c r="E194" s="22" t="s">
-        <v>422</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -13770,10 +13773,10 @@
         <v>114</v>
       </c>
       <c r="D195" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E195" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="E195" s="22" t="s">
-        <v>424</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -13804,10 +13807,10 @@
         <v>114</v>
       </c>
       <c r="D196" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E196" s="22" t="s">
         <v>425</v>
-      </c>
-      <c r="E196" s="22" t="s">
-        <v>426</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -13838,10 +13841,10 @@
         <v>114</v>
       </c>
       <c r="D197" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E197" s="22" t="s">
         <v>427</v>
-      </c>
-      <c r="E197" s="22" t="s">
-        <v>428</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -13872,10 +13875,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E198" s="22" t="s">
         <v>429</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>430</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -13900,16 +13903,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E199" s="22" t="s">
         <v>432</v>
-      </c>
-      <c r="E199" s="22" t="s">
-        <v>433</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -13934,16 +13937,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E200" s="22" t="s">
         <v>435</v>
-      </c>
-      <c r="E200" s="22" t="s">
-        <v>436</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -13968,16 +13971,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E201" s="22" t="s">
         <v>438</v>
-      </c>
-      <c r="E201" s="22" t="s">
-        <v>439</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -14002,16 +14005,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E202" s="22" t="s">
         <v>441</v>
-      </c>
-      <c r="E202" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -14036,16 +14039,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E203" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="E203" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -14070,16 +14073,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E204" s="22" t="s">
         <v>446</v>
-      </c>
-      <c r="E204" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -14104,16 +14107,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E205" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="E205" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -14138,16 +14141,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E206" s="22" t="s">
         <v>450</v>
-      </c>
-      <c r="E206" s="22" t="s">
-        <v>451</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -14172,16 +14175,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E207" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="E207" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -14206,16 +14209,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E208" s="22" t="s">
         <v>454</v>
-      </c>
-      <c r="E208" s="22" t="s">
-        <v>455</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -14240,16 +14243,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E209" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="E209" s="22" t="s">
-        <v>457</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -14274,16 +14277,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E210" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="E210" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -14308,16 +14311,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E211" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="E211" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -14342,16 +14345,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E212" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="E212" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -14376,16 +14379,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E213" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="E213" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -14410,16 +14413,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="E214" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -14444,16 +14447,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E215" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="E215" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -14478,16 +14481,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E216" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="E216" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -14512,16 +14515,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="E217" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="E217" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -14546,16 +14549,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E218" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="E218" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -14580,16 +14583,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E219" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="E219" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -14614,16 +14617,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E220" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="E220" s="22" t="s">
-        <v>479</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -14648,16 +14651,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E221" s="22" t="s">
         <v>480</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>481</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -14682,16 +14685,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E222" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="E222" s="22" t="s">
-        <v>483</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -14716,16 +14719,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="E223" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="E223" s="22" t="s">
-        <v>485</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -14750,16 +14753,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E224" s="22" t="s">
         <v>486</v>
-      </c>
-      <c r="E224" s="22" t="s">
-        <v>487</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -14784,16 +14787,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E225" s="22" t="s">
         <v>488</v>
-      </c>
-      <c r="E225" s="22" t="s">
-        <v>489</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -14818,16 +14821,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E226" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="E226" s="22" t="s">
-        <v>491</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -14852,16 +14855,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -14886,16 +14889,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E228" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="E228" s="22" t="s">
-        <v>494</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -14920,16 +14923,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E229" s="22" t="s">
         <v>495</v>
-      </c>
-      <c r="E229" s="22" t="s">
-        <v>496</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -14954,16 +14957,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E230" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="E230" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -14988,16 +14991,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D231" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E231" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="E231" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -15022,16 +15025,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D232" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E232" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="E232" s="22" t="s">
-        <v>502</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -15056,16 +15059,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D233" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E233" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="E233" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -15090,16 +15093,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D234" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="E234" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="E234" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -15124,16 +15127,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D235" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E235" s="22" t="s">
         <v>507</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -15158,16 +15161,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D236" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>509</v>
-      </c>
-      <c r="E236" s="22" t="s">
-        <v>510</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -15192,16 +15195,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D237" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="E237" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="E237" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -15226,16 +15229,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D238" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E238" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="E238" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -15260,16 +15263,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D239" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E239" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="E239" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -15294,16 +15297,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D240" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E240" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="E240" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -15328,16 +15331,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D241" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E241" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="E241" s="22" t="s">
-        <v>520</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -15362,16 +15365,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D242" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="E242" s="22" t="s">
         <v>521</v>
-      </c>
-      <c r="E242" s="22" t="s">
-        <v>522</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -15396,16 +15399,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -15430,16 +15433,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D244" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E244" s="22" t="s">
         <v>524</v>
-      </c>
-      <c r="E244" s="22" t="s">
-        <v>525</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -15464,16 +15467,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D245" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E245" s="22" t="s">
         <v>526</v>
-      </c>
-      <c r="E245" s="22" t="s">
-        <v>527</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -15498,16 +15501,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D246" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="E246" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="E246" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -15532,16 +15535,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D247" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E247" s="22" t="s">
         <v>530</v>
-      </c>
-      <c r="E247" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -15566,16 +15569,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D248" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E248" s="22" t="s">
         <v>532</v>
-      </c>
-      <c r="E248" s="22" t="s">
-        <v>533</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -15600,16 +15603,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D249" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E249" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -15634,16 +15637,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D250" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E250" s="22" t="s">
         <v>536</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>537</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -15668,16 +15671,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D251" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="E251" s="22" t="s">
         <v>538</v>
-      </c>
-      <c r="E251" s="22" t="s">
-        <v>539</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -15702,16 +15705,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D252" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E252" s="22" t="s">
         <v>540</v>
-      </c>
-      <c r="E252" s="22" t="s">
-        <v>541</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -15736,16 +15739,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D253" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E253" s="22" t="s">
         <v>542</v>
-      </c>
-      <c r="E253" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -15770,16 +15773,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D254" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="E254" s="22" t="s">
         <v>544</v>
-      </c>
-      <c r="E254" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -15804,16 +15807,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D255" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E255" s="22" t="s">
         <v>546</v>
-      </c>
-      <c r="E255" s="22" t="s">
-        <v>547</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -15838,16 +15841,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D256" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E256" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="E256" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -15872,16 +15875,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D257" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="E257" s="22" t="s">
         <v>550</v>
-      </c>
-      <c r="E257" s="22" t="s">
-        <v>551</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -15906,16 +15909,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D258" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E258" s="22" t="s">
         <v>552</v>
-      </c>
-      <c r="E258" s="22" t="s">
-        <v>553</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -15940,16 +15943,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -15974,16 +15977,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D260" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E260" s="22" t="s">
         <v>555</v>
-      </c>
-      <c r="E260" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -16008,16 +16011,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D261" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E261" s="22" t="s">
         <v>557</v>
-      </c>
-      <c r="E261" s="22" t="s">
-        <v>558</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -16042,16 +16045,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D262" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E262" s="22" t="s">
         <v>559</v>
-      </c>
-      <c r="E262" s="22" t="s">
-        <v>560</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -16076,16 +16079,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D263" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E263" s="22" t="s">
         <v>561</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>562</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -16110,16 +16113,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D264" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E264" s="22" t="s">
         <v>563</v>
-      </c>
-      <c r="E264" s="22" t="s">
-        <v>564</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -16144,16 +16147,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D265" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E265" s="22" t="s">
         <v>565</v>
-      </c>
-      <c r="E265" s="22" t="s">
-        <v>566</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -16178,16 +16181,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D266" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E266" s="22" t="s">
         <v>567</v>
-      </c>
-      <c r="E266" s="22" t="s">
-        <v>568</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -16212,16 +16215,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D267" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E267" s="22" t="s">
         <v>569</v>
-      </c>
-      <c r="E267" s="22" t="s">
-        <v>570</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -16246,16 +16249,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D268" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E268" s="22" t="s">
         <v>571</v>
-      </c>
-      <c r="E268" s="22" t="s">
-        <v>572</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -16280,16 +16283,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D269" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E269" s="22" t="s">
         <v>573</v>
-      </c>
-      <c r="E269" s="22" t="s">
-        <v>574</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -16314,16 +16317,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D270" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="E270" s="22" t="s">
         <v>575</v>
-      </c>
-      <c r="E270" s="22" t="s">
-        <v>576</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -16348,16 +16351,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D271" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="E271" s="22" t="s">
         <v>577</v>
-      </c>
-      <c r="E271" s="22" t="s">
-        <v>578</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -16382,16 +16385,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D272" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E272" s="22" t="s">
         <v>579</v>
-      </c>
-      <c r="E272" s="22" t="s">
-        <v>580</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -16416,16 +16419,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D273" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="E273" s="22" t="s">
         <v>581</v>
-      </c>
-      <c r="E273" s="22" t="s">
-        <v>582</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -16450,16 +16453,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D274" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="E274" s="22" t="s">
         <v>583</v>
-      </c>
-      <c r="E274" s="22" t="s">
-        <v>584</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -16484,16 +16487,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -16518,16 +16521,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D276" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E276" s="22" t="s">
         <v>586</v>
-      </c>
-      <c r="E276" s="22" t="s">
-        <v>587</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -16552,16 +16555,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D277" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="E277" s="22" t="s">
         <v>588</v>
-      </c>
-      <c r="E277" s="22" t="s">
-        <v>589</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -16586,16 +16589,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D278" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E278" s="22" t="s">
         <v>590</v>
-      </c>
-      <c r="E278" s="22" t="s">
-        <v>591</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -16620,16 +16623,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D279" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E279" s="22" t="s">
         <v>592</v>
-      </c>
-      <c r="E279" s="22" t="s">
-        <v>593</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -16654,16 +16657,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D280" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E280" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="E280" s="22" t="s">
-        <v>595</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -16688,16 +16691,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D281" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E281" s="22" t="s">
         <v>596</v>
-      </c>
-      <c r="E281" s="22" t="s">
-        <v>597</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -16722,16 +16725,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D282" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="E282" s="22" t="s">
         <v>598</v>
-      </c>
-      <c r="E282" s="22" t="s">
-        <v>599</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -16756,16 +16759,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D283" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E283" s="22" t="s">
         <v>600</v>
-      </c>
-      <c r="E283" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -16790,16 +16793,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D284" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E284" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="E284" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -16824,16 +16827,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D285" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="E285" s="22" t="s">
         <v>604</v>
-      </c>
-      <c r="E285" s="22" t="s">
-        <v>605</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -16858,16 +16861,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D286" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="E286" s="22" t="s">
         <v>606</v>
-      </c>
-      <c r="E286" s="22" t="s">
-        <v>607</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -16892,16 +16895,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D287" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E287" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="E287" s="22" t="s">
-        <v>609</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -16926,16 +16929,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D288" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E288" s="22" t="s">
         <v>610</v>
-      </c>
-      <c r="E288" s="22" t="s">
-        <v>611</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -16960,16 +16963,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D289" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E289" s="22" t="s">
         <v>612</v>
-      </c>
-      <c r="E289" s="22" t="s">
-        <v>613</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -16994,16 +16997,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D290" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="E290" s="22" t="s">
         <v>614</v>
-      </c>
-      <c r="E290" s="22" t="s">
-        <v>615</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -17028,16 +17031,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -17062,16 +17065,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D292" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E292" s="22" t="s">
         <v>617</v>
-      </c>
-      <c r="E292" s="22" t="s">
-        <v>618</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -17096,16 +17099,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D293" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="E293" s="22" t="s">
         <v>619</v>
-      </c>
-      <c r="E293" s="22" t="s">
-        <v>620</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -17130,16 +17133,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D294" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="E294" s="22" t="s">
         <v>621</v>
-      </c>
-      <c r="E294" s="22" t="s">
-        <v>622</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -17164,16 +17167,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D295" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="E295" s="22" t="s">
         <v>623</v>
-      </c>
-      <c r="E295" s="22" t="s">
-        <v>624</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -17198,16 +17201,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D296" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="E296" s="22" t="s">
         <v>625</v>
-      </c>
-      <c r="E296" s="22" t="s">
-        <v>626</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -17232,16 +17235,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D297" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E297" s="22" t="s">
         <v>627</v>
-      </c>
-      <c r="E297" s="22" t="s">
-        <v>628</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -17266,16 +17269,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D298" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E298" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="E298" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -17300,16 +17303,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="E299" s="22" t="s">
         <v>631</v>
-      </c>
-      <c r="E299" s="22" t="s">
-        <v>632</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -17334,16 +17337,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D300" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="E300" s="22" t="s">
         <v>633</v>
-      </c>
-      <c r="E300" s="22" t="s">
-        <v>634</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -17368,16 +17371,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D301" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E301" s="22" t="s">
         <v>635</v>
-      </c>
-      <c r="E301" s="22" t="s">
-        <v>636</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -17402,16 +17405,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D302" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="E302" s="22" t="s">
         <v>637</v>
-      </c>
-      <c r="E302" s="22" t="s">
-        <v>638</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -17436,16 +17439,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D303" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="E303" s="22" t="s">
         <v>639</v>
-      </c>
-      <c r="E303" s="22" t="s">
-        <v>640</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -17470,16 +17473,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D304" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E304" s="22" t="s">
         <v>641</v>
-      </c>
-      <c r="E304" s="22" t="s">
-        <v>642</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -17504,16 +17507,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D305" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="E305" s="22" t="s">
         <v>643</v>
-      </c>
-      <c r="E305" s="22" t="s">
-        <v>644</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -17538,16 +17541,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D306" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="E306" s="22" t="s">
         <v>645</v>
-      </c>
-      <c r="E306" s="22" t="s">
-        <v>646</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -17572,16 +17575,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -17606,16 +17609,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D308" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="E308" s="22" t="s">
         <v>648</v>
-      </c>
-      <c r="E308" s="22" t="s">
-        <v>649</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -17640,16 +17643,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D309" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="E309" s="22" t="s">
         <v>650</v>
-      </c>
-      <c r="E309" s="22" t="s">
-        <v>651</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -17674,16 +17677,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D310" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E310" s="22" t="s">
         <v>652</v>
-      </c>
-      <c r="E310" s="22" t="s">
-        <v>653</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -17708,16 +17711,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D311" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="E311" s="22" t="s">
         <v>654</v>
-      </c>
-      <c r="E311" s="22" t="s">
-        <v>655</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -17742,16 +17745,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D312" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E312" s="22" t="s">
         <v>656</v>
-      </c>
-      <c r="E312" s="22" t="s">
-        <v>657</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -17776,16 +17779,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D313" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E313" s="22" t="s">
         <v>658</v>
-      </c>
-      <c r="E313" s="22" t="s">
-        <v>659</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -17810,16 +17813,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D314" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="E314" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="E314" s="22" t="s">
-        <v>661</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -17844,16 +17847,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D315" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="E315" s="22" t="s">
         <v>662</v>
-      </c>
-      <c r="E315" s="22" t="s">
-        <v>663</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -17878,16 +17881,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D316" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="E316" s="22" t="s">
         <v>664</v>
-      </c>
-      <c r="E316" s="22" t="s">
-        <v>665</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -17912,16 +17915,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D317" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="E317" s="22" t="s">
         <v>666</v>
-      </c>
-      <c r="E317" s="22" t="s">
-        <v>667</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -17946,16 +17949,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D318" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="E318" s="22" t="s">
         <v>668</v>
-      </c>
-      <c r="E318" s="22" t="s">
-        <v>669</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -17980,16 +17983,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D319" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E319" s="22" t="s">
         <v>670</v>
-      </c>
-      <c r="E319" s="22" t="s">
-        <v>671</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -18014,16 +18017,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D320" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="E320" s="22" t="s">
         <v>672</v>
-      </c>
-      <c r="E320" s="22" t="s">
-        <v>673</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -18048,16 +18051,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D321" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E321" s="22" t="s">
         <v>674</v>
-      </c>
-      <c r="E321" s="22" t="s">
-        <v>675</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -18082,16 +18085,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D322" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="E322" s="22" t="s">
         <v>676</v>
-      </c>
-      <c r="E322" s="22" t="s">
-        <v>677</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -18116,16 +18119,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -18150,16 +18153,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D324" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E324" s="22" t="s">
         <v>679</v>
-      </c>
-      <c r="E324" s="22" t="s">
-        <v>680</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -18184,16 +18187,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D325" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="E325" s="22" t="s">
         <v>681</v>
-      </c>
-      <c r="E325" s="22" t="s">
-        <v>682</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -18218,16 +18221,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D326" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="E326" s="22" t="s">
         <v>683</v>
-      </c>
-      <c r="E326" s="22" t="s">
-        <v>684</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -18252,16 +18255,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="E327" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="E327" s="22" t="s">
-        <v>686</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -18286,16 +18289,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="E328" s="22" t="s">
         <v>687</v>
-      </c>
-      <c r="E328" s="22" t="s">
-        <v>688</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -18320,16 +18323,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="E329" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="E329" s="22" t="s">
-        <v>690</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -18354,16 +18357,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="E330" s="22" t="s">
         <v>691</v>
-      </c>
-      <c r="E330" s="22" t="s">
-        <v>692</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -18388,16 +18391,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="E331" s="22" t="s">
         <v>693</v>
-      </c>
-      <c r="E331" s="22" t="s">
-        <v>694</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -18422,16 +18425,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="E332" s="22" t="s">
         <v>695</v>
-      </c>
-      <c r="E332" s="22" t="s">
-        <v>696</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -18456,16 +18459,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="E333" s="22" t="s">
         <v>697</v>
-      </c>
-      <c r="E333" s="22" t="s">
-        <v>698</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -18490,16 +18493,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E334" s="22" t="s">
         <v>699</v>
-      </c>
-      <c r="E334" s="22" t="s">
-        <v>700</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -18524,16 +18527,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D335" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E335" s="22" t="s">
         <v>701</v>
-      </c>
-      <c r="E335" s="22" t="s">
-        <v>702</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -18558,16 +18561,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D336" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="E336" s="22" t="s">
         <v>703</v>
-      </c>
-      <c r="E336" s="22" t="s">
-        <v>704</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -18592,16 +18595,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D337" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="E337" s="22" t="s">
         <v>705</v>
-      </c>
-      <c r="E337" s="22" t="s">
-        <v>706</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -18626,16 +18629,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D338" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="E338" s="22" t="s">
         <v>707</v>
-      </c>
-      <c r="E338" s="22" t="s">
-        <v>708</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -18660,16 +18663,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D339" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="E339" s="22" t="s">
         <v>709</v>
-      </c>
-      <c r="E339" s="22" t="s">
-        <v>710</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -18694,16 +18697,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D340" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="E340" s="22" t="s">
         <v>711</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>712</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -18728,16 +18731,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D341" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="E341" s="22" t="s">
         <v>713</v>
-      </c>
-      <c r="E341" s="22" t="s">
-        <v>714</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -18762,16 +18765,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D342" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="E342" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>716</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -18796,16 +18799,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D343" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="E343" s="22" t="s">
         <v>717</v>
-      </c>
-      <c r="E343" s="22" t="s">
-        <v>718</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -18830,16 +18833,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D344" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="E344" s="22" t="s">
         <v>719</v>
-      </c>
-      <c r="E344" s="22" t="s">
-        <v>720</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -18864,16 +18867,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D345" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="E345" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="E345" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -18898,16 +18901,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D346" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="E346" s="22" t="s">
         <v>723</v>
-      </c>
-      <c r="E346" s="22" t="s">
-        <v>724</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -18932,16 +18935,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D347" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="E347" s="22" t="s">
         <v>725</v>
-      </c>
-      <c r="E347" s="22" t="s">
-        <v>726</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -18966,16 +18969,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D348" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="E348" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="E348" s="22" t="s">
-        <v>728</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -19000,16 +19003,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D349" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="E349" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="E349" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -19034,16 +19037,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D350" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="E350" s="22" t="s">
         <v>731</v>
-      </c>
-      <c r="E350" s="22" t="s">
-        <v>732</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -19068,16 +19071,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D351" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E351" s="22" t="s">
         <v>733</v>
-      </c>
-      <c r="E351" s="22" t="s">
-        <v>734</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -19102,16 +19105,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D352" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E352" s="22" t="s">
         <v>735</v>
-      </c>
-      <c r="E352" s="22" t="s">
-        <v>736</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -19136,16 +19139,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D353" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="E353" s="22" t="s">
-        <v>738</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -19170,16 +19173,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D354" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="E354" s="22" t="s">
         <v>739</v>
-      </c>
-      <c r="E354" s="22" t="s">
-        <v>740</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -19204,16 +19207,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D355" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E355" s="22" t="s">
         <v>741</v>
-      </c>
-      <c r="E355" s="22" t="s">
-        <v>742</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -19238,16 +19241,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D356" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="E356" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="E356" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -19272,16 +19275,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D357" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="E357" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="E357" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -19306,16 +19309,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D358" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E358" s="22" t="s">
         <v>747</v>
-      </c>
-      <c r="E358" s="22" t="s">
-        <v>748</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -19340,16 +19343,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="E359" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="E359" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -19374,16 +19377,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="E360" s="22" t="s">
         <v>751</v>
-      </c>
-      <c r="E360" s="22" t="s">
-        <v>752</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -19408,16 +19411,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E361" s="22" t="s">
         <v>753</v>
-      </c>
-      <c r="E361" s="22" t="s">
-        <v>754</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -19442,16 +19445,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="E362" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="E362" s="22" t="s">
-        <v>756</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -19476,16 +19479,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D363" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E363" s="22" t="s">
         <v>757</v>
-      </c>
-      <c r="E363" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -19510,16 +19513,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D364" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="E364" s="22" t="s">
         <v>759</v>
-      </c>
-      <c r="E364" s="22" t="s">
-        <v>760</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -19544,16 +19547,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D365" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="E365" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="E365" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -19578,16 +19581,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D366" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="E366" s="22" t="s">
         <v>763</v>
-      </c>
-      <c r="E366" s="22" t="s">
-        <v>764</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -19612,16 +19615,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D367" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E367" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="E367" s="22" t="s">
-        <v>766</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -19646,16 +19649,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D368" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="E368" s="22" t="s">
         <v>767</v>
-      </c>
-      <c r="E368" s="22" t="s">
-        <v>768</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -19680,16 +19683,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D369" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="E369" s="22" t="s">
         <v>769</v>
-      </c>
-      <c r="E369" s="22" t="s">
-        <v>770</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -19714,16 +19717,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D370" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E370" s="22" t="s">
         <v>771</v>
-      </c>
-      <c r="E370" s="22" t="s">
-        <v>772</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -19748,16 +19751,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D371" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="E371" s="22" t="s">
         <v>773</v>
-      </c>
-      <c r="E371" s="22" t="s">
-        <v>774</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -19782,16 +19785,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D372" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E372" s="22" t="s">
         <v>775</v>
-      </c>
-      <c r="E372" s="22" t="s">
-        <v>776</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -19816,16 +19819,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D373" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E373" s="22" t="s">
         <v>777</v>
-      </c>
-      <c r="E373" s="22" t="s">
-        <v>778</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -19850,16 +19853,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D374" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="E374" s="22" t="s">
         <v>779</v>
-      </c>
-      <c r="E374" s="22" t="s">
-        <v>780</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -19890,10 +19893,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="E375" s="22" t="s">
         <v>781</v>
-      </c>
-      <c r="E375" s="22" t="s">
-        <v>782</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -19924,22 +19927,22 @@
         <v>61</v>
       </c>
       <c r="D376" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="E376" s="22" t="s">
         <v>783</v>
-      </c>
-      <c r="E376" s="22" t="s">
-        <v>784</v>
       </c>
       <c r="F376" s="23">
         <v>45429</v>
       </c>
       <c r="G376" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="H376" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="H376" s="24" t="s">
+      <c r="I376" s="24" t="s">
         <v>862</v>
-      </c>
-      <c r="I376" s="24" t="s">
-        <v>864</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>64</v>
@@ -19968,10 +19971,10 @@
         <v>73</v>
       </c>
       <c r="D377" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="E377" s="22" t="s">
         <v>785</v>
-      </c>
-      <c r="E377" s="22" t="s">
-        <v>786</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -20002,10 +20005,10 @@
         <v>82</v>
       </c>
       <c r="D378" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E378" s="22" t="s">
         <v>787</v>
-      </c>
-      <c r="E378" s="22" t="s">
-        <v>788</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -20036,10 +20039,10 @@
         <v>91</v>
       </c>
       <c r="D379" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="E379" s="22" t="s">
         <v>789</v>
-      </c>
-      <c r="E379" s="22" t="s">
-        <v>790</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -20070,10 +20073,10 @@
         <v>100</v>
       </c>
       <c r="D380" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="E380" s="22" t="s">
         <v>791</v>
-      </c>
-      <c r="E380" s="22" t="s">
-        <v>792</v>
       </c>
       <c r="F380" s="23"/>
       <c r="G380" s="24"/>
@@ -20104,10 +20107,10 @@
         <v>117</v>
       </c>
       <c r="D381" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="E381" s="22" t="s">
         <v>793</v>
-      </c>
-      <c r="E381" s="22" t="s">
-        <v>794</v>
       </c>
       <c r="F381" s="23"/>
       <c r="G381" s="24"/>
@@ -20138,10 +20141,10 @@
         <v>114</v>
       </c>
       <c r="D382" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="E382" s="22" t="s">
         <v>795</v>
-      </c>
-      <c r="E382" s="22" t="s">
-        <v>796</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -20172,10 +20175,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="E383" s="22" t="s">
         <v>797</v>
-      </c>
-      <c r="E383" s="22" t="s">
-        <v>798</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -24924,10 +24927,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24935,13 +24938,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>801</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>802</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24949,13 +24952,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>804</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24963,13 +24966,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24977,13 +24980,13 @@
         <v>82</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>808</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24991,13 +24994,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -25005,13 +25008,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>812</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -25019,13 +25022,13 @@
         <v>117</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>814</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -25033,27 +25036,27 @@
         <v>114</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>819</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25061,13 +25064,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C11" s="30">
         <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25075,13 +25078,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C12" s="30">
         <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25089,13 +25092,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C13" s="30">
         <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25103,13 +25106,13 @@
         <v>82</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C14" s="30">
         <v>240</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25117,13 +25120,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C15" s="30">
         <v>256</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25131,13 +25134,13 @@
         <v>100</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C16" s="30">
         <v>272</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25145,13 +25148,13 @@
         <v>117</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C17" s="30">
         <v>288</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -25159,13 +25162,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C18" s="30">
         <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25173,13 +25176,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C19" s="30">
         <v>193</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25187,13 +25190,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C20" s="30">
         <v>209</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25201,13 +25204,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25215,13 +25218,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C22" s="30">
         <v>241</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25229,13 +25232,13 @@
         <v>91</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C23" s="30">
         <v>257</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25243,13 +25246,13 @@
         <v>100</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C24" s="30">
         <v>273</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25257,13 +25260,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C25" s="30">
         <v>289</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25271,13 +25274,13 @@
         <v>114</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C26" s="30">
         <v>305</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25285,13 +25288,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C27" s="30">
         <v>194</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25299,13 +25302,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C28" s="30">
         <v>210</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25313,13 +25316,13 @@
         <v>73</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C29" s="30">
         <v>226</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25327,13 +25330,13 @@
         <v>82</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C30" s="30">
         <v>242</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25341,13 +25344,13 @@
         <v>91</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C31" s="30">
         <v>258</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25355,13 +25358,13 @@
         <v>100</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C32" s="30">
         <v>274</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25369,13 +25372,13 @@
         <v>117</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C33" s="30">
         <v>290</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25383,13 +25386,13 @@
         <v>114</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C34" s="30">
         <v>306</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25397,7 +25400,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C35" s="30">
         <v>195</v>
@@ -25411,7 +25414,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C36" s="30">
         <v>211</v>
@@ -25425,7 +25428,7 @@
         <v>73</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C37" s="30">
         <v>227</v>
@@ -25439,7 +25442,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C38" s="30">
         <v>243</v>
@@ -25453,7 +25456,7 @@
         <v>91</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C39" s="30">
         <v>259</v>
@@ -25467,7 +25470,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C40" s="30">
         <v>275</v>
@@ -25481,7 +25484,7 @@
         <v>117</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C41" s="30">
         <v>291</v>
@@ -25495,7 +25498,7 @@
         <v>114</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C42" s="30">
         <v>307</v>
@@ -25509,7 +25512,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C43" s="30">
         <v>196</v>
@@ -25523,7 +25526,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C44" s="30">
         <v>212</v>
@@ -25537,7 +25540,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C45" s="30">
         <v>228</v>
@@ -25551,7 +25554,7 @@
         <v>82</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C46" s="30">
         <v>244</v>
@@ -25565,7 +25568,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C47" s="30">
         <v>260</v>
@@ -25579,7 +25582,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C48" s="30">
         <v>276</v>
@@ -25593,7 +25596,7 @@
         <v>117</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C49" s="30">
         <v>292</v>
@@ -25607,7 +25610,7 @@
         <v>114</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C50" s="30">
         <v>308</v>
@@ -26595,7 +26598,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -26603,7 +26606,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -27617,14 +27620,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27857,21 +27858,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e246371e-0fe6-4e60-9da6-0574cfff2d05">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d199676f-dea3-4248-b14d-078d8bf8a29a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BC5383-9A39-44FE-820E-E8F909F971FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5435EEEA-4D16-432F-AD75-4FF12121BE2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
-    <ds:schemaRef ds:uri="d199676f-dea3-4248-b14d-078d8bf8a29a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27896,9 +27896,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5435EEEA-4D16-432F-AD75-4FF12121BE2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BC5383-9A39-44FE-820E-E8F909F971FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e246371e-0fe6-4e60-9da6-0574cfff2d05"/>
+    <ds:schemaRef ds:uri="d199676f-dea3-4248-b14d-078d8bf8a29a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>